--- a/Algebra y Estadistica/Funcion lookup/lookup.xlsx
+++ b/Algebra y Estadistica/Funcion lookup/lookup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desarrollo De Software 2023 Junin\Segundo Semestre\Algebra y Estadistica\Funcion lookup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emi\Documents\ITU DESARROLLO\Segundo Semestre\Algebra y Estadistica\Funcion lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B24E8B-701A-4774-B21C-73C5675638EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D7543B-8B2F-4E3C-974A-49D90E5E0B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B70F65A6-C160-494F-A745-F0484325DC70}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Bp</t>
   </si>
@@ -78,9 +78,6 @@
     <t>: QUEREMOS BUSCAR UNA CLAVE EN OTRA CELDA Y QUE DEVUELVA UN VALOR PARA COLOCAR EN LA CELDA SELECCIONADA</t>
   </si>
   <si>
-    <t>Direccion</t>
-  </si>
-  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>Sum of GRUPO</t>
+  </si>
+  <si>
+    <t>BARRIO</t>
+  </si>
+  <si>
+    <t>ca</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -257,6 +260,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,7 +365,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0044F900-776F-4EB6-A0B8-ED755B488EA8}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0044F900-776F-4EB6-A0B8-ED755B488EA8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I4:J13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -723,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFB6EFC-79AB-41B8-ADC0-B2181952BF4E}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +752,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -754,37 +761,37 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="10">
-        <f>_xlfn.XLOOKUP(B5,F$5:F$12,G$5:G$12)</f>
+        <f>_xlfn.XLOOKUP(B5,F$5:F$13,G$5:G$13)</f>
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -803,13 +810,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:C16" si="0">_xlfn.XLOOKUP(B6,F$5:F$12,G$5:G$12)</f>
+        <f t="shared" ref="C6:C18" si="0">_xlfn.XLOOKUP(B6,F$5:F$13,G$5:G$13)</f>
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -828,7 +835,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>1</v>
@@ -853,7 +860,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>2</v>
@@ -878,7 +885,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -902,7 +909,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -926,7 +933,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>4</v>
@@ -950,7 +957,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>5</v>
@@ -974,7 +981,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>5</v>
@@ -983,6 +990,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="F13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="15">
+        <v>15</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>9</v>
       </c>
@@ -992,7 +1005,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
@@ -1004,7 +1017,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>6</v>
@@ -1016,7 +1029,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>7</v>
@@ -1024,6 +1037,24 @@
       <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
